--- a/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
+++ b/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
@@ -1329,7 +1329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2047,11 +2047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -2067,14 +2067,14 @@
     <col min="12" max="12" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" customHeight="1">
+    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:16" ht="45.75" customHeight="1">
+    <row r="2" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="39.75" customHeight="1">
+    <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="10" t="s">
         <v>57</v>
@@ -2145,11 +2145,11 @@
       </c>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" ht="39.75" customHeight="1">
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="63.75" customHeight="1">
+    <row r="5" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="63.75" customHeight="1">
+    <row r="6" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>1</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="103.5" customHeight="1">
+    <row r="7" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="33"/>
       <c r="B7" s="15" t="s">
         <v>54</v>
@@ -2237,7 +2237,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="54" customHeight="1">
+    <row r="8" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="18" t="s">
         <v>38</v>
@@ -2257,7 +2257,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="71.25" customHeight="1">
+    <row r="9" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="71.25" customHeight="1">
+    <row r="10" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34"/>
       <c r="B10" s="19"/>
       <c r="C10" s="10"/>
@@ -2303,7 +2303,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="54" customHeight="1">
+    <row r="11" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="19"/>
       <c r="C11" s="10"/>
@@ -2323,7 +2323,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="49.5" customHeight="1">
+    <row r="12" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="49.5" customHeight="1">
+    <row r="13" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="35"/>
       <c r="B13" s="22" t="s">
         <v>43</v>
@@ -2375,7 +2375,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="49.5" customHeight="1">
+    <row r="14" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="22"/>
       <c r="C14" s="10"/>
@@ -2395,7 +2395,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="67.5" customHeight="1">
+    <row r="15" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24"/>
       <c r="B15" s="22"/>
       <c r="C15" s="10"/>
@@ -2415,7 +2415,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1">
+    <row r="17" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1">
+    <row r="18" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2473,7 +2473,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1">
+    <row r="19" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2491,7 +2491,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1">
+    <row r="20" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2509,7 +2509,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1">
+    <row r="21" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2527,7 +2527,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1">
+    <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2545,7 +2545,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1">
+    <row r="23" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2563,7 +2563,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="24.95" customHeight="1">
+    <row r="24" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2581,7 +2581,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1">
+    <row r="25" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2599,7 +2599,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1">
+    <row r="26" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2617,7 +2617,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1">
+    <row r="27" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2635,7 +2635,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1">
+    <row r="28" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2653,7 +2653,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1">
+    <row r="29" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2671,7 +2671,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1">
+    <row r="30" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2687,7 +2687,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1">
+    <row r="31" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2703,7 +2703,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="24.95" customHeight="1">
+    <row r="32" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2719,7 +2719,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="24.95" customHeight="1">
+    <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2735,13 +2735,13 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
     </row>
   </sheetData>

--- a/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
+++ b/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
+++ b/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/healerjean/Desktop/study/Sinosoft/13、redis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>redis五大基本数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,24 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1、添加数据 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>set str abc</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3、修改数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,7 +234,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -250,7 +245,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -263,7 +258,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -274,7 +269,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -286,7 +281,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -298,7 +293,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -310,7 +305,7 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -322,7 +317,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -333,7 +328,7 @@
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -349,46 +344,6 @@
   </si>
   <si>
     <t>setex str 10 abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、一次添加多个变量多条数据
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mset str1 abc str2 def
-mget str1 str2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -554,104 +509,6 @@
         <charset val="134"/>
       </rPr>
       <t>hmset user name HealerJean age 23</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、出栈（从内存中删掉），先进去的在栈底，只出一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">lpop mylist </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从栈顶出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">rpop mylist </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从栈底出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1322,6 +1179,511 @@
   </si>
   <si>
     <t>keys *</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">、一次添加多个变量多条数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mset str1 abc str2 def
+mget str1 str2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.添加数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sadd  myset a b c</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、删除元素
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>srem myset a b</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、删除元素
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zrem user:ranke healerjean</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、添加数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zadd user:rank 251 healerjean</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2、添加多个
+zadd ranke 1 tom 25 healer</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、计算成员个数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zcard user:ranke</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2、计算某个成员的分数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zscore user:ranke healerjean</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3、增加成员的分数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zincrby user:ranke 9 healejean （变成了300）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4、返回指定排名范围的成员(zrange从低到高)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zrange user:ranke 0 2  （withscore返回分数）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+5、返回指定分数范围的成员
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zrangebyscore user:ranke 200 221</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+6、返回制定分数范围的成员个数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zcount user:ranke 100 200</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+7、返回用户排名
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>zrank user:rank healejean</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、计算元素个数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>scard myset</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2、获取所有元素
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>smembers key</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3、是否存在
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sismember key param</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、出栈（从内存中删掉），先进去的在栈底，只出一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">lpop mylist </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从栈顶出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rpop mylist </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">从栈底出
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>brpop lrpop timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 为上面的阻塞版本,等几秒内返回，如果等于0将一直阻塞下去
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、添加数据 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set str abc</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,17 +1691,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1347,27 +1709,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1375,7 +1737,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1385,6 +1747,63 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1393,63 +1812,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1461,10 +1823,49 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1473,45 +1874,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1590,6 +1952,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1633,10 +2011,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1649,12 +2029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1742,8 +2116,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1801,12 +2177,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1836,12 +2212,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2045,453 +2421,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="44.25" customWidth="1"/>
-    <col min="5" max="5" width="56.625" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="25.875" customWidth="1"/>
-    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
     <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="25.625" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:27" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
-      <c r="B7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+    <row r="7" spans="1:27" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="F12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
-      <c r="B13" s="22" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+    <row r="15" spans="1:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:27" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2509,7 +2941,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2527,7 +2959,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2545,7 +2977,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2563,7 +2995,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2581,7 +3013,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2599,7 +3031,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2617,7 +3049,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2635,7 +3067,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2653,7 +3085,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2671,7 +3103,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2687,7 +3119,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2703,7 +3135,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2719,7 +3151,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2735,13 +3167,13 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
     </row>
   </sheetData>

--- a/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
+++ b/13、redis/1.1、Redis 五种基本数据类型比较.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32700" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2423,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
